--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA9EA9B-670B-4A26-ADAF-3FF0092DC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE5AB75-08B0-4E73-9A21-80B3F86126EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Keyword</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>txt_programCode_pcp</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_FundeProfile</t>
   </si>
 </sst>
 </file>
@@ -639,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,13 +686,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -691,27 +700,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -719,13 +726,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -733,13 +740,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -750,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -761,13 +768,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -778,10 +785,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -789,13 +796,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -803,13 +810,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -820,10 +827,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -831,13 +838,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -845,13 +852,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -862,10 +869,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -873,13 +880,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -887,13 +894,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -901,13 +908,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -915,13 +922,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -929,13 +936,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -943,33 +950,61 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE8AF2-4EA9-40CF-828D-CBF62AEF6757}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
